--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc5_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc5_processed.xlsx
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08130584036144568</v>
+        <v>81.30584036144569</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01780415430267062</v>
+        <v>1.780415430267062</v>
       </c>
     </row>
   </sheetData>
